--- a/API/Model/GenerateExcel/Templates/Education Attainment Timeline.xlsx
+++ b/API/Model/GenerateExcel/Templates/Education Attainment Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0D7C14-E02A-4574-A419-6E63F513749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E1C5F-03F0-4708-83AF-46B7237ACD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="345" windowWidth="14520" windowHeight="11085" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -183,6 +183,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>843644</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7979BD7-9067-25C5-BC50-9F8C706C2B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="1809750" cy="1811525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -506,21 +561,21 @@
   <dimension ref="A3:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -528,7 +583,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -538,7 +593,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -546,7 +601,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -554,7 +609,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -582,7 +637,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -590,7 +645,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -598,7 +653,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -606,7 +661,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -614,7 +669,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -622,7 +677,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -630,7 +685,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -638,7 +693,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -646,7 +701,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -654,7 +709,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -662,7 +717,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -670,7 +725,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -678,7 +733,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -686,7 +741,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -694,7 +749,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -702,7 +757,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -717,6 +772,7 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>